--- a/Companies/Bank - Public/UCO Bank Ltd/Pruned_Excel/6_Dec19_Dec20.xlsx
+++ b/Companies/Bank - Public/UCO Bank Ltd/Pruned_Excel/6_Dec19_Dec20.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Dec '19</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '20</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '20</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Sep '20</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Dec '20</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '20</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '20</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '20</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '19</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -512,37 +489,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2,054.40</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2,011.70</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1,912.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1,966.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>1,966.38</t>
         </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1,966.25</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1,912.97</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2,011.70</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2,054.40</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>2054.4</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>1912.97</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>1982.34</v>
       </c>
     </row>
     <row r="5">
@@ -553,37 +521,28 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>1,486.23</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1,506.36</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1,575.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1,505.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>1,480.89</t>
         </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1,505.83</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1,575.41</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>1,506.36</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1,486.23</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>1575.41</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>1480.89</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>1510.944</v>
       </c>
     </row>
     <row r="6">
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>100.54</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>66.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>51.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>68.55</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>51.90</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>66.92</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>100.54</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>85.22</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>100.54</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>51.9</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>74.626</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>144.89</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>123.83</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>107.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>86.76</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>90.62</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>107.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>123.83</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>144.89</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>144.89</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>86.76000000000001</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>110.688</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>743.47</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>768.78</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>773.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>711.52</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>864.38</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>711.52</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>773.93</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>768.78</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>743.47</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>864.38</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>711.52</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>772.4159999999999</v>
       </c>
     </row>
     <row r="9"/>
@@ -725,37 +657,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>2,534.15</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2,487.91</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2,395.86</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2,221.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>2,195.43</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2,221.45</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2,395.86</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2,487.91</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2,534.15</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>2534.15</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>2195.43</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>2366.96</v>
       </c>
     </row>
     <row r="12">
@@ -766,37 +689,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>484.32</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>495.55</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>489.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>484.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>649.99</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>484.52</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>489.98</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>495.55</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>484.32</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>649.99</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>484.32</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>520.8720000000001</v>
       </c>
     </row>
     <row r="13">
@@ -807,37 +721,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>285.22</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>311.15</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>327.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>289.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>287.14</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>289.83</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>327.36</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>311.15</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>285.22</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>327.36</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>285.22</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>300.14</v>
       </c>
     </row>
     <row r="14">
@@ -848,37 +753,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>1,210.52</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1,216.60</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1,223.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,330.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>1,334.40</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1,330.32</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1,223.37</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1,216.60</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1,210.52</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>1334.4</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>1210.52</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>1263.042</v>
       </c>
     </row>
     <row r="15">
@@ -889,37 +785,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>2,170.69</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1,199.82</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1,180.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1,300.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>1,298.96</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1,300.20</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1,180.37</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1,199.82</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2,170.69</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>2170.69</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>1180.37</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>1430.008</v>
       </c>
     </row>
     <row r="16">
@@ -930,37 +817,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>-960.17</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>43.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>35.44</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>30.12</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>43.00</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>16.78</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>-960.17</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>-960.17</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>-166.966</v>
       </c>
     </row>
     <row r="17">
@@ -994,15 +872,6 @@
           <t>--</t>
         </is>
       </c>
-      <c r="H17" s="2" t="n">
-        <v>21.54</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>21.54</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>21.54</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1012,37 +881,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>-960.17</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>35.44</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>30.12</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>21.46</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>16.78</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>-960.17</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>35.44</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>-960.17</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>-171.274</v>
       </c>
     </row>
     <row r="19">
@@ -1053,37 +913,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>-960.17</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>35.44</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>30.12</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>21.46</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>16.78</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>-960.17</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>35.44</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>-960.17</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>-171.274</v>
       </c>
     </row>
     <row r="20">
@@ -1094,37 +945,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>8,623.30</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>9,918.34</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>9,918.34</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>9,918.34</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>9,918.34</t>
         </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>8,623.30</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>9918.34</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>8623.299999999999</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>9659.332</v>
       </c>
     </row>
     <row r="21">
@@ -1135,37 +977,28 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>6,248.23</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>6,942.91</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>6,942.91</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>6,942.91</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>6,942.91</t>
         </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6,248.23</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>6942.91</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>6248.23</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>6803.973999999999</v>
       </c>
     </row>
     <row r="22"/>
@@ -1184,37 +1017,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>94.44</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>94.44</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>94.44</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>94.44</t>
         </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>93.61</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>94.44</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>93.61</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>94.274</v>
       </c>
     </row>
     <row r="25"/>
@@ -1233,37 +1057,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>-1.18</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
           <t>0.04</t>
         </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-1.18</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>-1.18</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>-0.214</v>
       </c>
     </row>
     <row r="28">
@@ -1274,37 +1089,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>-1.18</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>0.04</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>-1.18</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>-1.18</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>-0.214</v>
       </c>
     </row>
     <row r="29"/>
@@ -1323,37 +1129,28 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>-1.18</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>0.04</t>
         </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>-1.18</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>-1.18</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>-0.214</v>
       </c>
     </row>
     <row r="32">
@@ -1364,37 +1161,28 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>-1.18</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
           <t>0.04</t>
         </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>-1.18</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>-1.18</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>-0.214</v>
       </c>
     </row>
     <row r="33"/>
@@ -1413,37 +1201,28 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>22,139.65</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>19,281.95</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16,576.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>13,365.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>11,440.47</t>
         </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>13,365.74</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>16,576.43</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>19,281.95</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>22,139.65</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>22139.65</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>11440.47</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>16560.848</v>
       </c>
     </row>
     <row r="36">
@@ -1454,37 +1233,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>6,199.65</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>5,510.65</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5,138.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>3,831.88</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>3,228.08</t>
         </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>3,831.88</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>5,138.18</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>5,510.65</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>6,199.65</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>6199.65</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>3228.08</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>4781.688</v>
       </c>
     </row>
     <row r="37">
@@ -1495,37 +1265,28 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>19.45</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>16.77</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>14.38</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
           <t>9.80</t>
         </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>11.62</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>14.38</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>16.77</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>19.45</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>19.45</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>14.404</v>
       </c>
     </row>
     <row r="38">
@@ -1536,37 +1297,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
           <t>2.97</t>
         </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>6.34</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="J38" s="2" t="n">
-        <v>4.668</v>
       </c>
     </row>
     <row r="39">
@@ -1577,37 +1329,28 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>-1.52</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
           <t>0.06</t>
         </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>-1.52</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>-1.52</v>
-      </c>
-      <c r="J39" s="2" t="n">
-        <v>-0.27</v>
       </c>
     </row>
     <row r="40"/>
@@ -1650,37 +1393,28 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>201912</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>202003</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>202006</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>202009</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
           <t>202012</t>
         </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>202009</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>202006</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>202003</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>201912</t>
-        </is>
-      </c>
-      <c r="H48" s="2" t="n">
-        <v>202012</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>201912</v>
-      </c>
-      <c r="J48" s="2" t="n">
-        <v>201988.4</v>
       </c>
     </row>
   </sheetData>
